--- a/excel/体重管理シート.xlsx
+++ b/excel/体重管理シート.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="71">
   <si>
     <t>体重管理</t>
     <rPh sb="0" eb="4">
@@ -367,6 +367,212 @@
   </si>
   <si>
     <t>アイス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白ご飯
+雑魚入り卵焼き
+ソーセージ2本</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジャコイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タマゴヤ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巻きずし1本
+赤だし</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーモンのムニエル
+白ご飯少々
+巻きずし</t>
+    <rPh sb="10" eb="11">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウニー一切れ
+ミルクティー500ml</t>
+    <rPh sb="5" eb="7">
+      <t>ヒトキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日もたくさん食べておいしかったね</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレイの煮つけ
+白ご飯</t>
+    <rPh sb="4" eb="5">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">サーモンのムニエル
+白ご飯
+</t>
+    <rPh sb="10" eb="11">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カントリーマアム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白ご飯
+焼き鮭
+とろろ
+ソーセージ2本</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サケ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷やし中華（ローソン）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛肉塩だれ
+チキンナゲット
+たまごサラダ</t>
+    <rPh sb="0" eb="2">
+      <t>ギュウニク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっとだけ減った</t>
+    <rPh sb="6" eb="7">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白ご飯
+ウインナー
+卵焼き</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タマゴヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛肉塩だれ
+チキンナゲット</t>
+    <rPh sb="0" eb="2">
+      <t>ギュウニク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シオ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -497,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -525,6 +731,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,13 +746,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -870,11 +1082,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="572009888"/>
-        <c:axId val="572010672"/>
+        <c:axId val="474702896"/>
+        <c:axId val="474700936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="572009888"/>
+        <c:axId val="474702896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,12 +1142,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572010672"/>
+        <c:crossAx val="474700936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="572010672"/>
+        <c:axId val="474700936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +1204,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572009888"/>
+        <c:crossAx val="474702896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1240,6 +1452,12 @@
                 <c:pt idx="3">
                   <c:v>79.2</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.900000000000006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1253,11 +1471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="572007144"/>
-        <c:axId val="572008320"/>
+        <c:axId val="474701720"/>
+        <c:axId val="474699368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="572007144"/>
+        <c:axId val="474701720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,12 +1531,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572008320"/>
+        <c:crossAx val="474699368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="572008320"/>
+        <c:axId val="474699368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1593,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572007144"/>
+        <c:crossAx val="474701720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2911,21 +3129,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="2">
         <v>2023</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
@@ -2942,30 +3160,30 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="12" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
@@ -2975,9 +3193,9 @@
       <c r="F7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="10"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
@@ -3550,46 +3768,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
     <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" customWidth="1"/>
+    <col min="16" max="16" width="12.25" customWidth="1"/>
+    <col min="17" max="17" width="14.75" customWidth="1"/>
+    <col min="18" max="18" width="15.75" customWidth="1"/>
+    <col min="20" max="20" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:21" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -3597,32 +3823,53 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="14" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="17" t="s">
         <v>43</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="M6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="9" t="s">
         <v>35</v>
       </c>
@@ -3635,11 +3882,28 @@
       <c r="G7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3654,8 +3918,22 @@
         <f>0</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="M8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3670,8 +3948,22 @@
         <f>C9-C8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="M9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="1">
+        <f>N9-N8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -3686,8 +3978,22 @@
         <f t="shared" ref="J10:J38" si="0">C10-C9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="M10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="1">
+        <f t="shared" ref="U10:U38" si="1">N10-N9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
@@ -3716,40 +4022,150 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="M11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="54" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="5"/>
+      <c r="C12" s="3">
+        <v>79.05</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>-79.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-0.15000000000000568</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="54" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="3">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-0.14999999999999147</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="10">
+        <v>65.25</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="U13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -3762,10 +4178,24 @@
       <c r="I14" s="5"/>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>-78.900000000000006</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="1">
+        <f t="shared" si="1"/>
+        <v>-65.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
@@ -3780,8 +4210,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="M15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
@@ -3796,8 +4240,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
@@ -3812,8 +4270,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
@@ -3828,8 +4300,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
@@ -3844,8 +4330,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
@@ -3860,8 +4360,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
@@ -3876,8 +4390,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
@@ -3892,8 +4420,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
@@ -3908,8 +4450,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
@@ -3924,8 +4480,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
@@ -3940,8 +4510,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
@@ -3956,8 +4540,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
@@ -3972,8 +4570,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
@@ -3988,8 +4600,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
@@ -4004,8 +4630,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>24</v>
       </c>
@@ -4020,8 +4660,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -4036,8 +4690,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -4052,8 +4720,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="10"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -4068,8 +4750,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="10"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>28</v>
       </c>
@@ -4084,8 +4780,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="10"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
@@ -4100,8 +4810,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" s="10"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
@@ -4116,8 +4840,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="10"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
         <v>31</v>
       </c>
@@ -4132,8 +4870,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="10"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
@@ -4148,8 +4900,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="10"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4159,9 +4925,18 @@
       <c r="H39" s="3"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A1:D2"/>
@@ -4169,10 +4944,16 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="D6:G6"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H39 S8:S39">
       <formula1>"〇,×"</formula1>
     </dataValidation>
   </dataValidations>
